--- a/Data Files/User_Profile.xlsx
+++ b/Data Files/User_Profile.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BBFC2F-3E9C-403F-802C-DDBF4EA41FA2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CA25EA-1237-4B06-AFC8-2835E0095CE7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>First Name</t>
   </si>
@@ -86,6 +86,24 @@
   </si>
   <si>
     <t>sandeep.ramchandani</t>
+  </si>
+  <si>
+    <t>LPA_Preprod</t>
+  </si>
+  <si>
+    <t>TestOfficer_B</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>PINStestadmin</t>
+  </si>
+  <si>
+    <t>Third Party PreProd</t>
+  </si>
+  <si>
+    <t>santosh.preprod</t>
   </si>
 </sst>
 </file>
@@ -414,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -428,11 +446,15 @@
     <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +491,17 @@
       <c r="L1" t="s">
         <v>20</v>
       </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -506,6 +537,15 @@
       </c>
       <c r="L2" t="s">
         <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/User_Profile.xlsx
+++ b/Data Files/User_Profile.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CA25EA-1237-4B06-AFC8-2835E0095CE7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3669144B-3226-4506-8547-01EB39FAFFE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>First Name</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>santosh.preprod</t>
+  </si>
+  <si>
+    <t>Autotest_1</t>
+  </si>
+  <si>
+    <t>Appellant_Valid</t>
+  </si>
+  <si>
+    <t>Appellant_Invalid</t>
+  </si>
+  <si>
+    <t>Autotest_5</t>
   </si>
 </sst>
 </file>
@@ -432,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,7 +466,7 @@
     <col min="15" max="15" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,8 +512,14 @@
       <c r="O1" t="s">
         <v>26</v>
       </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -546,6 +564,12 @@
       </c>
       <c r="O2" t="s">
         <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
